--- a/biology/Médecine/Œsophage/Œsophage.xlsx
+++ b/biology/Médecine/Œsophage/Œsophage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92sophage</t>
+          <t>Œsophage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œsophage (du grec οἰσοφάγος / oisophágos, littéralement « qui transporte ce qu'on mange ») est un organe appartenant au tube digestif, principalement thoracique et communiquant avec le pharynx au niveau du cou et l'estomac au niveau de l'abdomen. Il permet de transporter les aliments solides et liquides déglutis vers l'estomac grâce au péristaltisme, l'onde séquentielle de sa musculature. Il a une longueur de 25  à   30 cm chez l'être humain adulte et 5 cm chez le nouveau-né.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92sophage</t>
+          <t>Œsophage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'œsophage est le segment du tube digestif qui relie le pharynx au cardia de l'estomac. L'œsophage possède trois portions, reflétant les trois régions anatomiques qu'il traverse : œsophage cervical, œsophage thoracique et œsophage abdominal.
 À sa limite supérieure, il possède une valve appelée « sphincter supérieur de l'œsophage » ou encore bouche œsophagienne de Kilian. Cet orifice se situe à environ 15 cm des arcades dentaires. À sa limite inférieure, il n'existe pas de sphincter anatomique, mais un sphincter fonctionnel, caractérisé par l'absence de morphologie spécifique, mais individualisé par la pression locale exercée au passage du bol alimentaire au niveau de l'orifice du diaphragme.
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92sophage</t>
+          <t>Œsophage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,14 +572,16 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La paroi de l’œsophage répond au schéma classique de la paroi du tractus gastro-intestinal : une muqueuse, une sous-muqueuse, une musculeuse et une tunique externe (adventice ou séreuse).
 La paroi de l'œsophage est constituée, de l'intérieur vers l'extérieur, par :
 une muqueuse, constituée d'un épithélium malpighien non-kératinisé, d'une lame basale, d'un chorion infiltré d'éléments lymphoïdes. En profondeur de la muqueuse, près de la sous-muqueuse, une couche fine et peu organisée de tissu musculaire lisse forme la musculaire muqueuse (muscularis mucosae). Dans le tiers supérieur de l’œsophage, la muqueuse est dépourvue de muscularis mucosae. Elle commence à apparaître au tiers moyen de façon discontinue, puis s'épaissit pour devenir continue dans le tiers inférieur.
 une sous-muqueuse, tissu conjonctif plus dense, contenant les vaisseaux et nerfs. Par ailleurs, la sous-muqueuse renferme un plexus nerveux sous-muqueux appelé « plexus de Meissner », qui fait partie du système nerveux entérique. Ce plexus sous-muqueux permet de stimuler principalement les sécrétions muqueuses, ainsi que la motilité de la muqueuse.
 Une musculeuse : dans la portion supérieure de l’œsophage (1/3 supérieur), cette couche est quasi inexistante. Elle débute donc dans le tiers moyen et occupe les 2/3 inférieurs de l’œsophage. Elle comporte une couche circulaire interne et une couche longitudinale externe. La tunique renferme entre les deux couches un plexus nerveux myentérique appelé « plexus d'Auerbach ». Ce plexus nerveux, appartenant au système nerveux entérique, coordonne l'activité des deux couches musculaires et permet la motilité du tractus digestif (péristaltisme, mouvements de masses, segmentation, etc.). Au niveau de l’œsophage, seul le péristaltisme a lieu, de façon à acheminer le bol alimentaire vers l'estomac.
-une adventice, tissu conjonctif lâche solidaire des tissus voisins[1] ; toutefois une petite partie de la portion abdominale est recouverte d'une séreuse en lieu et place de l'adventice.
+une adventice, tissu conjonctif lâche solidaire des tissus voisins ; toutefois une petite partie de la portion abdominale est recouverte d'une séreuse en lieu et place de l'adventice.
 L'épithélium malpighien de la muqueuse permet de protéger de l'effet abrasif du bol alimentaire lors de son passage. Il protège ainsi les tissus sous-jacents et assure une protection mécanique. Les épithéliums malpighiens non kératinisés (dits « épidermoïdes »), en raison de leur nombre élevé de couches, forment généralement de bonnes barrières contre l'entrée d'agents pathogènes. Dès lors, le tissu lymphoïde associé à la muqueuse (MALT pour Mucosa-Associated Lymphoid Tissue, ou encore GALT pour Gut-Associated Lymphoid TIssue) est peu développé dans la paroi de l’œsophage.
 </t>
         </is>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92sophage</t>
+          <t>Œsophage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’œsophage dérive de la partie antérieure de l'intestin primitif
 </t>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C5%92sophage</t>
+          <t>Œsophage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,8 +646,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maladies
-Achalasie, aussi appelée « méga-œsophage », idiopathique ou secondaire à une maladie de Chagas, une sclérodermie, une amylose, une collagénose…
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Achalasie, aussi appelée « méga-œsophage », idiopathique ou secondaire à une maladie de Chagas, une sclérodermie, une amylose, une collagénose…
 Varice de l'œsophage
 Spasme de l'œsophage : maladie des spasmes étagés, œsophage casse-noisettes
 Œsophagite
@@ -643,9 +666,43 @@
 Anneau de Schatzki
 Diverticule de Zenker
 Malformation œsophagienne, atrésie de l'œsophage
-Syndrome de Boerhaave
-Symptômes
-Dysphagie
+Syndrome de Boerhaave</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Œsophage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pathologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dysphagie
 Pyrosis
 Régurgitation
 Hématémèse
@@ -653,51 +710,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C5%92sophage</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C5%92sophage</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Exploration</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fibroscopie œsophagienne
-L'examen consiste à inspecter avec une caméra à fibres optiques la lumière et la surface de l'œsophage en contact avec le bol alimentaire. On dépiste ainsi des lésions ulcérées, hémorragiques, tumorales… qui seront biopsiées pour analyse et si possible traitées au cours du même examen.
-pH-métrie œsophagienne
-La pH-métrie sur 24 heures de l'œsophage consiste à mesurer les variations du pH avec une sonde laissée une journée entière à quelques centimètres du cardia. Le pH ne devant physiologiquement pas descendre en dessous de 4 plus de deux fois par 24 heures. Cet examen dépiste essentiellement des reflux gastro-œsophagiens où le pH descend régulièrement à moins de 4 dans de multiples circonstances de la vie courante.
-Manométrie œsophagienne
-La manométrie permet de dépister des anomalies de la contraction du muscle œsophagien qui permet la progression habituelle du bol alimentaire.
-Transit baryté
-Le transit baryté s'effectue par prise de multiples clichés radiologiques pendant l'absorption per os d'un produit de contraste opaque aux rayons X. En opacifiant la lumière œsophagienne, cet examen dépiste les sténoses œsophagiennes, ainsi que les diverticules.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C5%92sophage</t>
+          <t>Œsophage</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,10 +731,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Exploration</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fibroscopie œsophagienne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen consiste à inspecter avec une caméra à fibres optiques la lumière et la surface de l'œsophage en contact avec le bol alimentaire. On dépiste ainsi des lésions ulcérées, hémorragiques, tumorales… qui seront biopsiées pour analyse et si possible traitées au cours du même examen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Œsophage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophage</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Exploration</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pH-métrie œsophagienne</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pH-métrie sur 24 heures de l'œsophage consiste à mesurer les variations du pH avec une sonde laissée une journée entière à quelques centimètres du cardia. Le pH ne devant physiologiquement pas descendre en dessous de 4 plus de deux fois par 24 heures. Cet examen dépiste essentiellement des reflux gastro-œsophagiens où le pH descend régulièrement à moins de 4 dans de multiples circonstances de la vie courante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Œsophage</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophage</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exploration</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Manométrie œsophagienne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La manométrie permet de dépister des anomalies de la contraction du muscle œsophagien qui permet la progression habituelle du bol alimentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Œsophage</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophage</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exploration</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Transit baryté</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le transit baryté s'effectue par prise de multiples clichés radiologiques pendant l'absorption per os d'un produit de contraste opaque aux rayons X. En opacifiant la lumière œsophagienne, cet examen dépiste les sténoses œsophagiennes, ainsi que les diverticules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Œsophage</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92sophage</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Abord chirurgical</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie d'abord chirurgicale de l'œsophage dépend tant du niveau de la lésion à opérer que de sa nature et du geste à réaliser. La partie haute, cervicale, est accessible par une cervicotomie gauche, tandis que le tiers moyen est accessible par thoracotomie (ou thoracoscopie) et la partie inférieure par laparotomie sus-ombilicale (ou cœlioscopie). Il est possible de combiner plusieurs voies d'abord durant la même intervention, notamment dans les œsophagectomies, avec l'intervention de Lewis-Santy et l'intervention d'Akiyama.
 </t>
